--- a/excel/massa.xlsx
+++ b/excel/massa.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25917"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F62A39E-3F52-4514-9AA5-24736E0C4894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2189785C-231C-4397-8FC0-350BB13D31F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginTest" sheetId="1" r:id="rId1"/>
+    <sheet name="CarTest" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>name</t>
   </si>
@@ -64,6 +65,15 @@
   </si>
   <si>
     <t>annezdz</t>
+  </si>
+  <si>
+    <t>car_brand</t>
+  </si>
+  <si>
+    <t>BMW</t>
+  </si>
+  <si>
+    <t>Hyundai</t>
   </si>
 </sst>
 </file>
@@ -428,7 +438,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -490,4 +500,34 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B42741C-8684-4E5B-AF2F-C0EBB277B648}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/excel/massa.xlsx
+++ b/excel/massa.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25917"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2189785C-231C-4397-8FC0-350BB13D31F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FEF86237-88E8-4988-84A1-92E76D9FE9FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginTest" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>name</t>
   </si>
@@ -70,10 +70,19 @@
     <t>car_brand</t>
   </si>
   <si>
+    <t>cat_title</t>
+  </si>
+  <si>
     <t>BMW</t>
   </si>
   <si>
+    <t>BMW Cars</t>
+  </si>
+  <si>
     <t>Hyundai</t>
+  </si>
+  <si>
+    <t>Hyundai Cars</t>
   </si>
 </sst>
 </file>
@@ -504,27 +513,40 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B42741C-8684-4E5B-AF2F-C0EBB277B648}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>12</v>
       </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
